--- a/data/sampletrain.xlsx
+++ b/data/sampletrain.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="199">
   <si>
     <t>Train</t>
   </si>
@@ -53,10 +53,10 @@
     <t>24.10</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>399</t>
+    <t>195</t>
+  </si>
+  <si>
+    <t>383</t>
   </si>
   <si>
     <t>12172</t>
@@ -140,6 +140,9 @@
     <t>09.25</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>12215</t>
   </si>
   <si>
@@ -161,7 +164,7 @@
     <t>22.50</t>
   </si>
   <si>
-    <t>117</t>
+    <t>138</t>
   </si>
   <si>
     <t>22452</t>
@@ -209,7 +212,7 @@
     <t>21.05</t>
   </si>
   <si>
-    <t>260</t>
+    <t>224</t>
   </si>
   <si>
     <t>22414</t>
@@ -311,10 +314,10 @@
     <t>16.05</t>
   </si>
   <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>432</t>
+    <t>202</t>
+  </si>
+  <si>
+    <t>422</t>
   </si>
   <si>
     <t>12910</t>
@@ -338,9 +341,6 @@
     <t>17.45</t>
   </si>
   <si>
-    <t>328</t>
-  </si>
-  <si>
     <t>22110</t>
   </si>
   <si>
@@ -386,6 +386,9 @@
     <t>15.50</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>12926</t>
   </si>
   <si>
@@ -416,7 +419,7 @@
     <t>16.55</t>
   </si>
   <si>
-    <t>112</t>
+    <t>104</t>
   </si>
   <si>
     <t>02172</t>
@@ -431,7 +434,7 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>177</t>
+    <t>149</t>
   </si>
   <si>
     <t>11058</t>
@@ -473,9 +476,6 @@
     <t>18.50</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>12908</t>
   </si>
   <si>
@@ -485,6 +485,9 @@
     <t>19.00</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>12472</t>
   </si>
   <si>
@@ -500,6 +503,9 @@
     <t>20.15</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>19020</t>
   </si>
   <si>
@@ -513,9 +519,6 @@
   </si>
   <si>
     <t>30.25</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>22210</t>
@@ -773,9 +776,6 @@
       <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -845,364 +845,382 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
         <v>46</v>
       </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
       <c r="G22" t="s">
-        <v>107</v>
-      </c>
-      <c r="S22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1237,22 +1255,19 @@
         <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>118</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1277,51 +1292,54 @@
       <c r="G25" t="s">
         <v>123</v>
       </c>
+      <c r="R25" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
@@ -1335,77 +1353,77 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30" t="s">
         <v>26</v>
@@ -1413,50 +1431,47 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>121</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q32" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1471,99 +1486,102 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
         <v>156</v>
       </c>
+      <c r="T33" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>26</v>
+        <v>162</v>
+      </c>
+      <c r="T34" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
-      </c>
-      <c r="T35" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1572,21 +1590,24 @@
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1595,80 +1616,77 @@
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41">
@@ -1676,98 +1694,98 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
